--- a/day08/data/다나와_무선청소기_전처리결과.xlsx
+++ b/day08/data/다나와_무선청소기_전처리결과.xlsx
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1043690</v>
+        <v>1043700</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>778960</v>
+        <v>778970</v>
       </c>
       <c r="E24" t="n">
         <v>30</v>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>495910</v>
+        <v>495920</v>
       </c>
       <c r="E33" t="n">
         <v>40</v>
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>297990</v>
+        <v>298000</v>
       </c>
       <c r="E39" t="n">
         <v>50</v>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>40560</v>
+        <v>40550</v>
       </c>
       <c r="E44" t="n">
         <v>18</v>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>335510</v>
+        <v>335500</v>
       </c>
       <c r="E58" t="n">
         <v>60</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>765160</v>
+        <v>765170</v>
       </c>
       <c r="E64" t="n">
         <v>60</v>
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>449340</v>
+        <v>449330</v>
       </c>
       <c r="E74" t="n">
         <v>40</v>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>482620</v>
+        <v>482630</v>
       </c>
       <c r="E76" t="n">
         <v>20</v>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>638990</v>
+        <v>638980</v>
       </c>
       <c r="E91" t="n">
         <v>60</v>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>99800</v>
+        <v>99790</v>
       </c>
       <c r="E100" t="n">
         <v>45</v>
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>538020</v>
+        <v>538990</v>
       </c>
       <c r="E106" t="n">
         <v>43</v>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>52510</v>
+        <v>51920</v>
       </c>
       <c r="E113" t="n">
         <v>20</v>
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>199870</v>
+        <v>199880</v>
       </c>
       <c r="E151" t="n">
         <v>40</v>
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1635000</v>
+        <v>1634990</v>
       </c>
       <c r="E171" t="n">
         <v>80</v>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>55090</v>
+        <v>55080</v>
       </c>
       <c r="E177" t="n">
         <v>45</v>
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>64880</v>
+        <v>64870</v>
       </c>
       <c r="E183" t="n">
         <v>40</v>
@@ -6842,7 +6842,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>446000</v>
+        <v>632580</v>
       </c>
       <c r="E254" t="n">
         <v>33</v>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>172920</v>
+        <v>172910</v>
       </c>
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="n">
@@ -7810,7 +7810,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>600070</v>
+        <v>600080</v>
       </c>
       <c r="E293" t="n">
         <v>40</v>
@@ -8036,7 +8036,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>848070</v>
+        <v>848080</v>
       </c>
       <c r="E302" t="n">
         <v>40</v>
@@ -8460,7 +8460,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>460090</v>
+        <v>460100</v>
       </c>
       <c r="E319" t="n">
         <v>30</v>
@@ -9414,7 +9414,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>39010</v>
+        <v>39000</v>
       </c>
       <c r="E357" t="n">
         <v>180</v>
@@ -10622,7 +10622,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>5900</v>
+        <v>5890</v>
       </c>
       <c r="E405" t="inlineStr"/>
       <c r="F405" t="inlineStr"/>
@@ -10668,7 +10668,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>77353</v>
+        <v>77675</v>
       </c>
       <c r="E407" t="n">
         <v>22</v>
@@ -11524,7 +11524,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>17300</v>
+        <v>17290</v>
       </c>
       <c r="E441" t="n">
         <v>180</v>
@@ -13036,7 +13036,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>47790</v>
+        <v>47800</v>
       </c>
       <c r="E502" t="n">
         <v>30</v>
@@ -14840,7 +14840,7 @@
         </is>
       </c>
       <c r="D575" t="n">
-        <v>37070</v>
+        <v>37060</v>
       </c>
       <c r="E575" t="inlineStr"/>
       <c r="F575" t="inlineStr"/>
@@ -18770,7 +18770,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>367630</v>
+        <v>367640</v>
       </c>
       <c r="E733" t="n">
         <v>25</v>
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>1905240</v>
+        <v>1905250</v>
       </c>
       <c r="E871" t="n">
         <v>30</v>
@@ -23838,7 +23838,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>118137</v>
+        <v>118629</v>
       </c>
       <c r="E938" t="n">
         <v>25</v>
@@ -24116,7 +24116,7 @@
         </is>
       </c>
       <c r="D949" t="n">
-        <v>2037831</v>
+        <v>2046315</v>
       </c>
       <c r="E949" t="n">
         <v>60</v>
@@ -24188,7 +24188,7 @@
         </is>
       </c>
       <c r="D952" t="n">
-        <v>184207</v>
+        <v>184974</v>
       </c>
       <c r="E952" t="n">
         <v>75</v>
@@ -24262,7 +24262,7 @@
         </is>
       </c>
       <c r="D955" t="n">
-        <v>56060</v>
+        <v>56050</v>
       </c>
       <c r="E955" t="inlineStr"/>
       <c r="F955" t="n">
@@ -24286,7 +24286,7 @@
         </is>
       </c>
       <c r="D956" t="n">
-        <v>1266240</v>
+        <v>1266250</v>
       </c>
       <c r="E956" t="n">
         <v>30</v>
@@ -25698,7 +25698,7 @@
         </is>
       </c>
       <c r="D1014" t="n">
-        <v>4450</v>
+        <v>4440</v>
       </c>
       <c r="E1014" t="inlineStr"/>
       <c r="F1014" t="inlineStr"/>
@@ -27652,7 +27652,7 @@
         </is>
       </c>
       <c r="D1092" t="n">
-        <v>692060</v>
+        <v>692066</v>
       </c>
       <c r="E1092" t="n">
         <v>60</v>
@@ -28686,7 +28686,7 @@
         </is>
       </c>
       <c r="D1133" t="n">
-        <v>1644100</v>
+        <v>1644110</v>
       </c>
       <c r="E1133" t="n">
         <v>60</v>
@@ -32512,7 +32512,7 @@
         </is>
       </c>
       <c r="D1286" t="n">
-        <v>193130</v>
+        <v>193140</v>
       </c>
       <c r="E1286" t="n">
         <v>40</v>
@@ -33810,7 +33810,7 @@
         </is>
       </c>
       <c r="D1341" t="n">
-        <v>5910</v>
+        <v>5900</v>
       </c>
       <c r="E1341" t="inlineStr"/>
       <c r="F1341" t="inlineStr"/>
@@ -33924,7 +33924,7 @@
         </is>
       </c>
       <c r="D1346" t="n">
-        <v>50920</v>
+        <v>50910</v>
       </c>
       <c r="E1346" t="n">
         <v>45</v>
@@ -34026,7 +34026,7 @@
         </is>
       </c>
       <c r="D1350" t="n">
-        <v>38460</v>
+        <v>38450</v>
       </c>
       <c r="E1350" t="inlineStr"/>
       <c r="F1350" t="n">
@@ -34698,7 +34698,7 @@
         </is>
       </c>
       <c r="D1377" t="n">
-        <v>23050</v>
+        <v>23040</v>
       </c>
       <c r="E1377" t="n">
         <v>30</v>
@@ -34750,7 +34750,7 @@
         </is>
       </c>
       <c r="D1379" t="n">
-        <v>80740</v>
+        <v>80730</v>
       </c>
       <c r="E1379" t="n">
         <v>17</v>
@@ -34802,7 +34802,7 @@
         </is>
       </c>
       <c r="D1381" t="n">
-        <v>26090</v>
+        <v>26080</v>
       </c>
       <c r="E1381" t="inlineStr"/>
       <c r="F1381" t="n">
@@ -36102,7 +36102,7 @@
         </is>
       </c>
       <c r="D1434" t="n">
-        <v>68160</v>
+        <v>68150</v>
       </c>
       <c r="E1434" t="inlineStr"/>
       <c r="F1434" t="n">
@@ -36932,7 +36932,7 @@
         </is>
       </c>
       <c r="D1468" t="n">
-        <v>33830</v>
+        <v>33440</v>
       </c>
       <c r="E1468" t="n">
         <v>30</v>
@@ -38350,7 +38350,7 @@
         </is>
       </c>
       <c r="D1526" t="n">
-        <v>58650</v>
+        <v>58640</v>
       </c>
       <c r="E1526" t="n">
         <v>20</v>
@@ -38376,7 +38376,7 @@
         </is>
       </c>
       <c r="D1527" t="n">
-        <v>25050</v>
+        <v>25040</v>
       </c>
       <c r="E1527" t="n">
         <v>20</v>
@@ -40536,7 +40536,7 @@
         </is>
       </c>
       <c r="D1615" t="n">
-        <v>32627</v>
+        <v>32763</v>
       </c>
       <c r="E1615" t="inlineStr"/>
       <c r="F1615" t="n">
@@ -42526,7 +42526,7 @@
         </is>
       </c>
       <c r="D1699" t="n">
-        <v>84490</v>
+        <v>84480</v>
       </c>
       <c r="E1699" t="n">
         <v>110</v>
@@ -44250,7 +44250,7 @@
         </is>
       </c>
       <c r="D1771" t="n">
-        <v>188285</v>
+        <v>189069</v>
       </c>
       <c r="E1771" t="n">
         <v>45</v>
@@ -45772,7 +45772,7 @@
         </is>
       </c>
       <c r="D1835" t="n">
-        <v>188285</v>
+        <v>189069</v>
       </c>
       <c r="E1835" t="n">
         <v>45</v>
@@ -47294,7 +47294,7 @@
         </is>
       </c>
       <c r="D1899" t="n">
-        <v>188285</v>
+        <v>189069</v>
       </c>
       <c r="E1899" t="n">
         <v>45</v>
@@ -48816,7 +48816,7 @@
         </is>
       </c>
       <c r="D1963" t="n">
-        <v>188285</v>
+        <v>189069</v>
       </c>
       <c r="E1963" t="n">
         <v>45</v>
@@ -50338,7 +50338,7 @@
         </is>
       </c>
       <c r="D2027" t="n">
-        <v>188285</v>
+        <v>189069</v>
       </c>
       <c r="E2027" t="n">
         <v>45</v>
